--- a/backend/src/excel_handler/files/GD35.xlsx
+++ b/backend/src/excel_handler/files/GD35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,15 +439,23 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>457.67</v>
+      </c>
+      <c r="C2" t="n">
+        <v>462.59</v>
       </c>
     </row>
     <row r="3">
@@ -459,15 +467,21 @@
       <c r="B3" t="n">
         <v>457.67</v>
       </c>
+      <c r="C3" t="n">
+        <v>462.59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>457.67</v>
+      </c>
+      <c r="C4" t="n">
+        <v>462.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD35.xlsx
+++ b/backend/src/excel_handler/files/GD35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.59</v>
+        <v>443.76</v>
       </c>
       <c r="C2" t="n">
-        <v>461.21</v>
+        <v>439.24</v>
       </c>
       <c r="D2" t="n">
-        <v>459.12</v>
+        <v>435.18</v>
       </c>
       <c r="E2" t="n">
-        <v>468.62</v>
+        <v>453.69</v>
       </c>
       <c r="F2" t="n">
-        <v>457.77</v>
+        <v>422.64</v>
       </c>
       <c r="G2" t="n">
-        <v>456.45</v>
-      </c>
-      <c r="H2" t="n">
-        <v>455.61</v>
-      </c>
-      <c r="I2" t="n">
-        <v>457.96</v>
-      </c>
-      <c r="J2" t="n">
-        <v>452.67</v>
-      </c>
-      <c r="K2" t="n">
-        <v>451.81</v>
-      </c>
-      <c r="L2" t="n">
-        <v>450.87</v>
-      </c>
-      <c r="M2" t="n">
-        <v>443.76</v>
+        <v>432.87</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462.59</v>
+        <v>443.76</v>
       </c>
       <c r="C3" t="n">
-        <v>461.21</v>
+        <v>439.24</v>
       </c>
       <c r="D3" t="n">
-        <v>459.12</v>
+        <v>435.18</v>
       </c>
       <c r="E3" t="n">
-        <v>468.62</v>
+        <v>453.69</v>
       </c>
       <c r="F3" t="n">
-        <v>457.77</v>
+        <v>422.64</v>
       </c>
       <c r="G3" t="n">
-        <v>456.45</v>
-      </c>
-      <c r="H3" t="n">
-        <v>455.61</v>
-      </c>
-      <c r="I3" t="n">
-        <v>457.96</v>
-      </c>
-      <c r="J3" t="n">
-        <v>452.67</v>
-      </c>
-      <c r="K3" t="n">
-        <v>451.81</v>
-      </c>
-      <c r="L3" t="n">
-        <v>450.87</v>
-      </c>
-      <c r="M3" t="n">
-        <v>443.76</v>
+        <v>432.87</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>462.59</v>
+        <v>443.76</v>
       </c>
       <c r="C4" t="n">
-        <v>461.21</v>
+        <v>439.24</v>
       </c>
       <c r="D4" t="n">
-        <v>459.12</v>
+        <v>435.18</v>
       </c>
       <c r="E4" t="n">
-        <v>468.62</v>
+        <v>453.69</v>
       </c>
       <c r="F4" t="n">
-        <v>457.77</v>
+        <v>422.64</v>
       </c>
       <c r="G4" t="n">
-        <v>456.45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>455.61</v>
-      </c>
-      <c r="I4" t="n">
-        <v>457.96</v>
-      </c>
-      <c r="J4" t="n">
-        <v>452.67</v>
-      </c>
-      <c r="K4" t="n">
-        <v>451.81</v>
-      </c>
-      <c r="L4" t="n">
-        <v>450.87</v>
-      </c>
-      <c r="M4" t="n">
-        <v>443.76</v>
+        <v>432.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD35.xlsx
+++ b/backend/src/excel_handler/files/GD35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>462.59</v>
+      </c>
+      <c r="C2" t="n">
+        <v>461.21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>459.12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>468.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>457.77</v>
+      </c>
+      <c r="G2" t="n">
+        <v>456.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>455.61</v>
+      </c>
+      <c r="I2" t="n">
+        <v>457.96</v>
+      </c>
+      <c r="J2" t="n">
+        <v>452.67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>451.81</v>
+      </c>
+      <c r="L2" t="n">
+        <v>450.87</v>
+      </c>
+      <c r="M2" t="n">
         <v>443.76</v>
-      </c>
-      <c r="C2" t="n">
-        <v>439.24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>435.18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>453.69</v>
-      </c>
-      <c r="F2" t="n">
-        <v>422.64</v>
-      </c>
-      <c r="G2" t="n">
-        <v>432.87</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>462.59</v>
+      </c>
+      <c r="C3" t="n">
+        <v>461.21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>459.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>468.62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>457.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>456.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>455.61</v>
+      </c>
+      <c r="I3" t="n">
+        <v>457.96</v>
+      </c>
+      <c r="J3" t="n">
+        <v>452.67</v>
+      </c>
+      <c r="K3" t="n">
+        <v>451.81</v>
+      </c>
+      <c r="L3" t="n">
+        <v>450.87</v>
+      </c>
+      <c r="M3" t="n">
         <v>443.76</v>
-      </c>
-      <c r="C3" t="n">
-        <v>439.24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>435.18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>453.69</v>
-      </c>
-      <c r="F3" t="n">
-        <v>422.64</v>
-      </c>
-      <c r="G3" t="n">
-        <v>432.87</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>462.59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>461.21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>459.12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>468.62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>457.77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>456.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>455.61</v>
+      </c>
+      <c r="I4" t="n">
+        <v>457.96</v>
+      </c>
+      <c r="J4" t="n">
+        <v>452.67</v>
+      </c>
+      <c r="K4" t="n">
+        <v>451.81</v>
+      </c>
+      <c r="L4" t="n">
+        <v>450.87</v>
+      </c>
+      <c r="M4" t="n">
         <v>443.76</v>
-      </c>
-      <c r="C4" t="n">
-        <v>439.24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>435.18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>453.69</v>
-      </c>
-      <c r="F4" t="n">
-        <v>422.64</v>
-      </c>
-      <c r="G4" t="n">
-        <v>432.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD35.xlsx
+++ b/backend/src/excel_handler/files/GD35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,192 +436,253 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>462.59</v>
-      </c>
-      <c r="C2" t="n">
-        <v>461.21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>459.12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>468.62</v>
-      </c>
-      <c r="F2" t="n">
-        <v>457.77</v>
-      </c>
-      <c r="G2" t="n">
-        <v>456.45</v>
-      </c>
-      <c r="H2" t="n">
-        <v>455.61</v>
-      </c>
-      <c r="I2" t="n">
-        <v>457.96</v>
-      </c>
+          <t>Adcap Balanceado V</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>452.67</v>
+        <v>5346.79</v>
       </c>
       <c r="K2" t="n">
-        <v>451.81</v>
+        <v>6862.93</v>
       </c>
       <c r="L2" t="n">
-        <v>450.87</v>
+        <v>6638.93</v>
       </c>
       <c r="M2" t="n">
-        <v>443.76</v>
+        <v>6752.23</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6829.16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6930.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462.59</v>
+        <v>443.76</v>
       </c>
       <c r="C3" t="n">
-        <v>461.21</v>
+        <v>439.24</v>
       </c>
       <c r="D3" t="n">
-        <v>459.12</v>
+        <v>435.18</v>
       </c>
       <c r="E3" t="n">
-        <v>468.62</v>
+        <v>453.69</v>
       </c>
       <c r="F3" t="n">
-        <v>457.77</v>
+        <v>422.64</v>
       </c>
       <c r="G3" t="n">
-        <v>456.45</v>
+        <v>432.87</v>
       </c>
       <c r="H3" t="n">
-        <v>455.61</v>
+        <v>419.36</v>
       </c>
       <c r="I3" t="n">
-        <v>457.96</v>
+        <v>434.1</v>
       </c>
       <c r="J3" t="n">
-        <v>452.67</v>
+        <v>435.08</v>
       </c>
       <c r="K3" t="n">
-        <v>451.81</v>
+        <v>438.9</v>
       </c>
       <c r="L3" t="n">
-        <v>450.87</v>
+        <v>421.92</v>
       </c>
       <c r="M3" t="n">
-        <v>443.76</v>
+        <v>430.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>433.98</v>
+      </c>
+      <c r="O3" t="n">
+        <v>443.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>443.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>439.24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>435.18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>453.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>422.64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>432.87</v>
+      </c>
+      <c r="H4" t="n">
+        <v>419.36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>434.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2890.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3650.91</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3530.43</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3591.26</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3631.57</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3686.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>462.59</v>
-      </c>
-      <c r="C4" t="n">
-        <v>461.21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>459.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>468.62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>457.77</v>
-      </c>
-      <c r="G4" t="n">
-        <v>456.45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>455.61</v>
-      </c>
-      <c r="I4" t="n">
-        <v>457.96</v>
-      </c>
-      <c r="J4" t="n">
-        <v>452.67</v>
-      </c>
-      <c r="K4" t="n">
-        <v>451.81</v>
-      </c>
-      <c r="L4" t="n">
-        <v>450.87</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="B5" t="n">
         <v>443.76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>439.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>435.18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>453.69</v>
+      </c>
+      <c r="F5" t="n">
+        <v>422.64</v>
+      </c>
+      <c r="G5" t="n">
+        <v>432.87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>419.36</v>
+      </c>
+      <c r="I5" t="n">
+        <v>434.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5781.87</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7301.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7060.85</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7182.53</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7263.14</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7373.55</v>
       </c>
     </row>
   </sheetData>
